--- a/data/supersite_area_HD_SD_DRAFT_2024_02_09.xlsx
+++ b/data/supersite_area_HD_SD_DRAFT_2024_02_09.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Areas, SD, HD at Supersite" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HDs" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SDs" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Areas, SD, HD at Supersite" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="HDs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="SDs" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,469 +463,473 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allenspark Fire Station </t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LV-02,LF-02,LM-03,LM-07,LM-04,GN-01,BO-09,BO-07,BO-02,BO-01</t>
+          <t>MT-03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18,17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12,11,19,10,49</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>209,309,501,616,632,636,801,815,826,853,855</t>
+          <t>914</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Allenspark Fire Station </t>
+          <t>Altona MS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MT-03</t>
+          <t>LM-02,LM-03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>914</t>
+          <t>605,606,607,608,609,610,611,614,615,616,624,625,630,631</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Altona MS</t>
+          <t>Burlington Elementary</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LM-02,LM-03,nan</t>
+          <t>LM-01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17,nan</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11,nan</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>605,606,607,608,609,610,611,614,615,624,625,630,631,nan</t>
+          <t>600,601,602,603,604,612,613</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Burlington Elementary</t>
+          <t>Casey MS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LM-01</t>
+          <t>BO-08,BO-07,MT-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18,15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10,49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>600,601,602,603,604,612,613</t>
+          <t>810,817,818,820,821,822,823,824,825,826,827,910</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Casey MS</t>
+          <t>Centaurus HS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BO-08,BO-07,MT-02,nan</t>
+          <t>LF-01,LF-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18,15,nan</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10,49,nan</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>810,817,818,820,821,822,823,824,825,827,910,nan</t>
+          <t>300,301,302,303,304,305,306,307,308,309,310,311,312,313,314,315,316,500,501,502</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Centaurus HS</t>
+          <t>Centennial MS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LF-01,LF-02,nan</t>
+          <t>BO-10,BO-09,MT-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17,18,nan</t>
+          <t>18,15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12,nan</t>
+          <t>10,49</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>300,301,302,303,304,305,306,307,308,310,311,312,313,314,315,316,500,502,nan</t>
+          <t>803,804,805,806,807,811,812,813,814,815,816,911,912</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Centennial MS</t>
+          <t>Eldorado K8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BO-10,BO-09,MT-02,nan</t>
+          <t>SU-01</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18,15,nan</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10,49,nan</t>
+          <t>49,12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>803,804,805,806,807,811,812,813,814,816,911,912,nan</t>
+          <t>003,100,101,102,103,104,105,106</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Eldorado K8</t>
+          <t>Fairview HS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SU-01</t>
+          <t>BO-02,BO-03,BO-01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18,15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>49,12</t>
+          <t>10,49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>003,100,101,102,103,104,105,106</t>
+          <t>830,843,844,845,846,847,850,851,852,853,854,855,856,857,900,906</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fairview HS</t>
+          <t>Gold Hill School</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BO-02,BO-03,BO-01,nan</t>
+          <t>MT-02</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18,15,nan</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10,49,nan</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>830,843,844,845,846,847,850,851,852,854,856,857,900,906,nan</t>
+          <t>909</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Gold Hill School</t>
+          <t>Horizon K-8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MT-02</t>
+          <t>BO-04,BO-03</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>840,842,848</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Horizon K-8</t>
+          <t>Jamestown School</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BO-04,BO-03</t>
+          <t>MT-02</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>840,842,848</t>
+          <t>913</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Jamestown School</t>
+          <t>Longs Peak MS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MT-02</t>
+          <t>LM-07,LM-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17,15</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>11,49</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>617,626,627,628,629,632,641,642,643,644,645,646,647,648,649,703,704,705</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Longs Peak MS</t>
+          <t>Louisville MS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LM-07,LM-06,nan</t>
+          <t>LV-01,LV-02</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17,15,nan</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11,49,nan</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>617,626,627,628,629,641,642,643,644,645,646,647,648,649,703,704,705,nan</t>
+          <t>200,201,202,203,204,205,206,207,208,209,210,211,212</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Louisville MS</t>
+          <t>Lyons Middle Senior</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LV-01,LV-02,nan</t>
+          <t>MT-03</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18,nan</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12,nan</t>
+          <t>12,49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>200,201,202,203,204,205,206,207,208,210,211,212,nan</t>
+          <t>700,701,702,915,916</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Lyons Middle Senior</t>
+          <t>Meadowlark</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MT-03</t>
+          <t>ER-01</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12,49</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>700,701,702,915,916</t>
+          <t>400,401,402,403,404,405,406,407,408</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Meadowlark</t>
+          <t>Nederland HS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ER-01</t>
+          <t>MT-01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>400,401,402,403,404,405,406,407,408</t>
+          <t>901,902,903,904,905,907</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Nederland HS</t>
+          <t>New Vista</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MT-01</t>
+          <t>BO-05</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>49,10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>901,902,903,904,905,907</t>
+          <t>828,829,831,832,833</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>New Vista</t>
+          <t>Niwot HS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BO-05</t>
+          <t>BO-11,GN-01,BO-10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -935,118 +939,91 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>49,10</t>
+          <t>12,10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>828,829,831,832,833</t>
+          <t>503,504,505,506,507,508,509,510,800,801,802,808,809,819</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Niwot HS</t>
+          <t>Platt MS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BO-11,GN-01,BO-10,nan</t>
+          <t>BO-01,BO-04</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18,nan</t>
+          <t>15,18</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12,10,nan</t>
+          <t>12,10</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>503,504,505,506,507,508,509,510,800,802,808,809,819,nan</t>
+          <t>004,834,835,836,837,838,839,841,849</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Platt MS</t>
+          <t>Timberline K-8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BO-01,BO-04</t>
+          <t>LM-04,LM-05</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15,18</t>
+          <t>15,17</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12,10</t>
+          <t>19,11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>004,834,835,836,837,838,839,841,849</t>
+          <t>002,618,619,620,621,622,623,633,634,635,636,637,638,639,640,650,651</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Timberline K-8</t>
+          <t>Ward Town Hall</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LM-04,LM-05,nan</t>
+          <t>MT-02</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15,17,nan</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>19,11,nan</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
-        <is>
-          <t>002,618,619,620,621,622,623,633,634,635,637,638,639,640,650,651,nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Ward Town Hall</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MT-02</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
         <is>
           <t>908</t>
         </is>
@@ -1096,7 +1073,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Niwot HS,,Centennial MS,Casey MS,New Vista,Fairview HS,Platt MS,Horizon K-8</t>
+          <t>Niwot HS,Centennial MS,Casey MS,New Vista,Fairview HS,Platt MS,Horizon K-8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1113,7 +1090,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Burlington Elementary,Altona MS,,Longs Peak MS,Timberline K-8</t>
+          <t>Burlington Elementary,Altona MS,Longs Peak MS,Timberline K-8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1130,7 +1107,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Platt MS,Eldorado K8,Louisville MS,,Centaurus HS,Niwot HS,Lyons Middle Senior</t>
+          <t>Platt MS,Eldorado K8,Louisville MS,Centaurus HS,Niwot HS,Lyons Middle Senior</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1147,7 +1124,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Timberline K-8,Meadowlark,</t>
+          <t>Timberline K-8,Meadowlark</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1164,7 +1141,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eldorado K8,Lyons Middle Senior,Longs Peak MS,Centennial MS,,Casey MS,New Vista,Fairview HS,Nederland HS,Ward Town Hall,Gold Hill School,Jamestown School,Allenspark Fire Station </t>
+          <t xml:space="preserve">Eldorado K8,Lyons Middle Senior,Longs Peak MS,Centennial MS,Casey MS,New Vista,Fairview HS,Nederland HS,Ward Town Hall,Gold Hill School,Jamestown School,Allenspark Fire Station </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1234,7 +1211,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centaurus HS,,Meadowlark,Burlington Elementary,Altona MS,Longs Peak MS,Timberline K-8</t>
+          <t>Centaurus HS,Meadowlark,Burlington Elementary,Altona MS,Longs Peak MS,Timberline K-8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1251,7 +1228,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eldorado K8,Louisville MS,,Centaurus HS,Niwot HS,Centennial MS,Casey MS,New Vista,Fairview HS,Platt MS,Horizon K-8</t>
+          <t>Eldorado K8,Louisville MS,Centaurus HS,Niwot HS,Centennial MS,Casey MS,New Vista,Fairview HS,Platt MS,Horizon K-8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
